--- a/ipl/Royal Challengers Bangalore/Wanindu Hasaranga de Silva.xlsx
+++ b/ipl/Royal Challengers Bangalore/Wanindu Hasaranga de Silva.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -489,9 +489,67 @@
         <v>31st Match (N), Abu Dhabi, September 20, 2021, Indian Premier League</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Wanindu Hasaranga de Silva</v>
+      </c>
+      <c r="B4" t="str">
+        <v>1</v>
+      </c>
+      <c r="C4" t="str">
+        <v>1</v>
+      </c>
+      <c r="D4" t="str">
+        <v>0</v>
+      </c>
+      <c r="E4" t="str">
+        <v>0</v>
+      </c>
+      <c r="F4" t="str">
+        <v>100.00</v>
+      </c>
+      <c r="G4" t="str">
+        <v>Chennai Super Kings</v>
+      </c>
+      <c r="H4" t="str">
+        <v>Super Kings won by 6 wickets (with 11 balls remaining)</v>
+      </c>
+      <c r="I4" t="str">
+        <v>35th Match (N), Sharjah, September 24, 2021, Indian Premier League</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Wanindu Hasaranga de Silva</v>
+      </c>
+      <c r="B5" t="str">
+        <v>0</v>
+      </c>
+      <c r="C5" t="str">
+        <v>1</v>
+      </c>
+      <c r="D5" t="str">
+        <v>0</v>
+      </c>
+      <c r="E5" t="str">
+        <v>0</v>
+      </c>
+      <c r="F5" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="G5" t="str">
+        <v>Kolkata Knight Riders</v>
+      </c>
+      <c r="H5" t="str">
+        <v>KKR won by 9 wickets (with 60 balls remaining)</v>
+      </c>
+      <c r="I5" t="str">
+        <v>31st Match (N), Abu Dhabi, September 20, 2021, Indian Premier League</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I5"/>
   </ignoredErrors>
 </worksheet>
 </file>